--- a/hipotesis_tarea.xlsx
+++ b/hipotesis_tarea.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/PUCP/PreGrado/estadistica_anapol2/DATA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i412\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,10 @@
   <definedNames>
     <definedName name="ineiCsv" localSheetId="0">Sheet1!$A$1:$V$202</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +32,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="ineiCsv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/JoseManuel/Downloads/ineiCsv.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/JoseManuel/Downloads/ineiCsv.csv" comma="1">
       <textFields count="22">
         <textField/>
         <textField/>
@@ -63,10 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="232">
-  <si>
-    <t>CPV 2007_Indicadores_2019102572540458</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="227">
   <si>
     <t>Pais</t>
   </si>
@@ -77,78 +74,9 @@
     <t>Provincia</t>
   </si>
   <si>
-    <t>Tema</t>
-  </si>
-  <si>
-    <t>Demográfico</t>
-  </si>
-  <si>
-    <t>Económico-Laboral</t>
-  </si>
-  <si>
-    <t>Social</t>
-  </si>
-  <si>
-    <t>Vivienda</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Sub Tema</t>
-  </si>
-  <si>
-    <t>Mortalidad</t>
-  </si>
-  <si>
-    <t>Población Económicamente Activa</t>
-  </si>
-  <si>
-    <t>Lengua Materna</t>
-  </si>
-  <si>
-    <t>Tenencia</t>
-  </si>
-  <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
-    <t>Tasa de Mortalidad Infantil</t>
-  </si>
-  <si>
-    <t>Tasa de empleo vulnerable</t>
-  </si>
-  <si>
-    <t>Porcentaje de personas de 3 años a más cuya lengua materna es quechua, aymara, ashaninka u otra lengua nativa</t>
-  </si>
-  <si>
-    <t>Porcentaje de viviendas cuyo régimen de tenencia de vivienda es propia</t>
-  </si>
-  <si>
-    <t>Clase</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Área Urbana</t>
-  </si>
-  <si>
-    <t>Área Rural</t>
-  </si>
-  <si>
-    <t>Sexo - Hombre</t>
-  </si>
-  <si>
-    <t>Sexo - Mujer</t>
-  </si>
-  <si>
-    <t>Indicadores</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
     <t>Perú</t>
   </si>
   <si>
@@ -759,12 +687,69 @@
   </si>
   <si>
     <t>Purús</t>
+  </si>
+  <si>
+    <t>DEM_Mortalidad_TOTAL</t>
+  </si>
+  <si>
+    <t>DEM_Mortalidad_URB</t>
+  </si>
+  <si>
+    <t>DEM_Mortalidad_RURAL</t>
+  </si>
+  <si>
+    <t>DEM_Mortalidad_HOMBRE</t>
+  </si>
+  <si>
+    <t>DEM_Mortalidad_MUJER</t>
+  </si>
+  <si>
+    <t>ECONOM_Vuln_TOTAL</t>
+  </si>
+  <si>
+    <t>ECONOM_Vuln_URB</t>
+  </si>
+  <si>
+    <t>ECONOM_Vuln_RURAL</t>
+  </si>
+  <si>
+    <t>ECONOM_Vuln_HOMBRE</t>
+  </si>
+  <si>
+    <t>ECONOM_Vuln_MUJER</t>
+  </si>
+  <si>
+    <t>SOC_lgmt_TOTAL</t>
+  </si>
+  <si>
+    <t>SOC_lgmt_MUJER</t>
+  </si>
+  <si>
+    <t>SOC_lgmt_HOMBRE</t>
+  </si>
+  <si>
+    <t>SOC_lgmt_RURAL</t>
+  </si>
+  <si>
+    <t>SOC_lgmt_URB</t>
+  </si>
+  <si>
+    <t>VIV_rgm_TOTAL</t>
+  </si>
+  <si>
+    <t>VIV_rgm_URB</t>
+  </si>
+  <si>
+    <t>VIV_rgm_RURAL</t>
+  </si>
+  <si>
+    <t>vacio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -805,6 +790,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1079,391 +1067,160 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="80.625" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="59.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" t="s">
+        <v>220</v>
+      </c>
+      <c r="S1" t="s">
+        <v>219</v>
+      </c>
+      <c r="T1" t="s">
+        <v>223</v>
+      </c>
+      <c r="U1" t="s">
+        <v>224</v>
+      </c>
+      <c r="V1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="K3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T4" t="s">
-        <v>14</v>
-      </c>
-      <c r="U4" t="s">
-        <v>14</v>
-      </c>
-      <c r="V4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" t="s">
-        <v>19</v>
-      </c>
-      <c r="U5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" t="s">
-        <v>25</v>
-      </c>
-      <c r="T6" t="s">
-        <v>21</v>
-      </c>
-      <c r="U6" t="s">
-        <v>22</v>
-      </c>
-      <c r="V6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" t="s">
-        <v>27</v>
-      </c>
-      <c r="T7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>16.899999999999999</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J8">
         <v>54.66</v>
@@ -1505,33 +1262,33 @@
         <v>83.78</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>21.4</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J9">
         <v>64.599999999999994</v>
@@ -1573,33 +1330,33 @@
         <v>88.19</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>20.399999999999999</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J10">
         <v>50.71</v>
@@ -1641,33 +1398,33 @@
         <v>86.92</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>28.5</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J11">
         <v>81</v>
@@ -1709,33 +1466,33 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>24.5</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J12">
         <v>68.400000000000006</v>
@@ -1777,33 +1534,33 @@
         <v>87.29</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>14.3</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J13">
         <v>64.5</v>
@@ -1845,33 +1602,33 @@
         <v>90.37</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>19.399999999999999</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J14">
         <v>52.26</v>
@@ -1913,33 +1670,33 @@
         <v>86.78</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>41.9</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J15">
         <v>53.71</v>
@@ -1981,33 +1738,33 @@
         <v>55.66</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J16">
         <v>57.3</v>
@@ -2049,33 +1806,33 @@
         <v>88.45</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>32.6</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J17">
         <v>49.82</v>
@@ -2117,33 +1874,33 @@
         <v>92.67</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>27.1</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J18">
         <v>44.32</v>
@@ -2185,33 +1942,33 @@
         <v>64.45</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>22.8</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J19">
         <v>62.06</v>
@@ -2253,33 +2010,33 @@
         <v>89.49</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>28.3</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J20">
         <v>45.72</v>
@@ -2321,33 +2078,33 @@
         <v>89.82</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>16.399999999999999</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I21" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J21">
         <v>34.39</v>
@@ -2389,33 +2146,33 @@
         <v>67.489999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>20.7</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I22" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J22">
         <v>55.99</v>
@@ -2457,33 +2214,33 @@
         <v>88.75</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J23">
         <v>34.42</v>
@@ -2525,33 +2282,33 @@
         <v>83.39</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>24.9</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I24" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J24">
         <v>38.92</v>
@@ -2593,33 +2350,33 @@
         <v>84.07</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <v>13.6</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H25" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I25" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J25">
         <v>38.340000000000003</v>
@@ -2661,33 +2418,33 @@
         <v>76.849999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>19.100000000000001</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H26" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I26" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J26">
         <v>57.85</v>
@@ -2729,33 +2486,33 @@
         <v>75.739999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>26.4</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H27" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J27">
         <v>52.82</v>
@@ -2797,33 +2554,33 @@
         <v>78.73</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" t="s">
-        <v>52</v>
-      </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E28">
         <v>12.9</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H28" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I28" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J28">
         <v>54.8</v>
@@ -2865,33 +2622,33 @@
         <v>60.84</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E29">
         <v>37.6</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H29" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I29" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J29">
         <v>49.73</v>
@@ -2933,33 +2690,33 @@
         <v>62.83</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <v>17.5</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H30" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I30" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J30">
         <v>49.62</v>
@@ -3001,33 +2758,33 @@
         <v>87.93</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>26.6</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H31" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I31" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J31">
         <v>48.71</v>
@@ -3069,33 +2826,33 @@
         <v>68.239999999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E32">
         <v>12.9</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H32" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I32" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J32">
         <v>28.3</v>
@@ -3137,33 +2894,33 @@
         <v>88.06</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E33">
         <v>25.6</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H33" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I33" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J33">
         <v>61.13</v>
@@ -3205,33 +2962,33 @@
         <v>95.02</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E34">
         <v>37.4</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H34" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I34" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J34">
         <v>65.150000000000006</v>
@@ -3273,33 +3030,33 @@
         <v>66.84</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E35">
         <v>17.5</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H35" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I35" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J35">
         <v>42.27</v>
@@ -3341,33 +3098,33 @@
         <v>72.540000000000006</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E36">
         <v>18.3</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H36" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I36" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J36">
         <v>53.34</v>
@@ -3409,33 +3166,33 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E37">
         <v>41.2</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H37" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I37" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J37">
         <v>53.62</v>
@@ -3477,33 +3234,33 @@
         <v>85.24</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E38">
         <v>27.2</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H38" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I38" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J38">
         <v>60.53</v>
@@ -3545,33 +3302,33 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <v>26.4</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H39" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I39" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J39">
         <v>55.37</v>
@@ -3613,33 +3370,33 @@
         <v>74.77</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E40">
         <v>24.3</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H40" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I40" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J40">
         <v>56.63</v>
@@ -3681,33 +3438,33 @@
         <v>96.09</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E41">
         <v>30.2</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H41" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I41" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J41">
         <v>59.03</v>
@@ -3749,33 +3506,33 @@
         <v>90.22</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <v>16.100000000000001</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H42" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I42" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J42">
         <v>21.43</v>
@@ -3817,33 +3574,33 @@
         <v>59.51</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>13.2</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H43" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I43" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J43">
         <v>29.08</v>
@@ -3885,33 +3642,33 @@
         <v>71.19</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E44">
         <v>12.9</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H44" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I44" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J44">
         <v>32.97</v>
@@ -3953,33 +3710,33 @@
         <v>68.489999999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E45">
         <v>23.9</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H45" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I45" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J45">
         <v>32.42</v>
@@ -4021,33 +3778,33 @@
         <v>79.37</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E46">
         <v>23.4</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H46" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I46" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J46">
         <v>40.26</v>
@@ -4089,33 +3846,33 @@
         <v>57.84</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E47">
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H47" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I47" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J47">
         <v>38.49</v>
@@ -4157,33 +3914,33 @@
         <v>86.51</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E48">
         <v>21.2</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H48" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I48" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J48">
         <v>24.29</v>
@@ -4225,33 +3982,33 @@
         <v>72.150000000000006</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E49">
         <v>25.1</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H49" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I49" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J49">
         <v>64.28</v>
@@ -4293,33 +4050,33 @@
         <v>80.03</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E50">
         <v>22.4</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H50" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I50" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J50">
         <v>74.45</v>
@@ -4361,33 +4118,33 @@
         <v>94.44</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E51">
         <v>25.7</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H51" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I51" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J51">
         <v>41.61</v>
@@ -4429,33 +4186,33 @@
         <v>86.32</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E52">
         <v>26.9</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H52" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I52" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J52">
         <v>56.18</v>
@@ -4497,33 +4254,33 @@
         <v>74.59</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E53">
         <v>24.8</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H53" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I53" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J53">
         <v>63.87</v>
@@ -4565,33 +4322,33 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E54">
         <v>22.9</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H54" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I54" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J54">
         <v>72.930000000000007</v>
@@ -4633,33 +4390,33 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E55">
         <v>25.3</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H55" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I55" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J55">
         <v>56.42</v>
@@ -4701,33 +4458,33 @@
         <v>73.86</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E56">
         <v>43.4</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H56" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I56" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J56">
         <v>51.12</v>
@@ -4769,33 +4526,33 @@
         <v>82.7</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E57">
         <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H57" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I57" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J57">
         <v>55.13</v>
@@ -4837,33 +4594,33 @@
         <v>76.92</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E58">
         <v>28.5</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H58" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I58" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J58">
         <v>55.09</v>
@@ -4905,33 +4662,33 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E59">
         <v>21.4</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H59" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I59" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J59">
         <v>59.11</v>
@@ -4973,33 +4730,33 @@
         <v>83.05</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E60">
         <v>26.4</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H60" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I60" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J60">
         <v>64.849999999999994</v>
@@ -5041,33 +4798,33 @@
         <v>89.46</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E61">
         <v>16.899999999999999</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H61" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I61" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J61">
         <v>68.22</v>
@@ -5109,33 +4866,33 @@
         <v>91.28</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E62">
         <v>22.6</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H62" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I62" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J62">
         <v>38.770000000000003</v>
@@ -5177,33 +4934,33 @@
         <v>89.89</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E63">
         <v>31.3</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H63" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I63" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J63">
         <v>66.17</v>
@@ -5245,33 +5002,33 @@
         <v>89.34</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E64">
         <v>19.600000000000001</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H64" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I64" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J64">
         <v>63.97</v>
@@ -5313,33 +5070,33 @@
         <v>93.28</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E65">
         <v>22.1</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H65" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I65" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J65">
         <v>52.41</v>
@@ -5381,33 +5138,33 @@
         <v>87.51</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E66">
         <v>18.5</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H66" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I66" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J66">
         <v>66.73</v>
@@ -5449,33 +5206,33 @@
         <v>89.97</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E67">
         <v>18.600000000000001</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H67" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I67" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J67">
         <v>79.66</v>
@@ -5517,33 +5274,33 @@
         <v>95.4</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E68">
         <v>20.5</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H68" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I68" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J68">
         <v>51.12</v>
@@ -5585,33 +5342,33 @@
         <v>89.39</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C69" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E69">
         <v>21.5</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H69" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I69" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J69">
         <v>69.819999999999993</v>
@@ -5653,33 +5410,33 @@
         <v>89.15</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E70">
         <v>31.8</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I70" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J70">
         <v>65.86</v>
@@ -5721,33 +5478,33 @@
         <v>92.39</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E71">
         <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H71" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I71" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J71">
         <v>67.56</v>
@@ -5789,33 +5546,33 @@
         <v>90.06</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C72" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E72">
         <v>34.799999999999997</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H72" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I72" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J72">
         <v>63.29</v>
@@ -5857,33 +5614,33 @@
         <v>88.28</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C73" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E73">
         <v>21</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H73" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I73" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J73">
         <v>65.72</v>
@@ -5925,33 +5682,33 @@
         <v>90.55</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E74">
         <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H74" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I74" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J74">
         <v>69.819999999999993</v>
@@ -5993,33 +5750,33 @@
         <v>89.2</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E75">
         <v>19.5</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H75" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I75" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J75">
         <v>69.27</v>
@@ -6061,33 +5818,33 @@
         <v>89.47</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E76">
         <v>23.5</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H76" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I76" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J76">
         <v>68.81</v>
@@ -6129,33 +5886,33 @@
         <v>90.39</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E77">
         <v>45.1</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H77" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I77" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J77">
         <v>76.88</v>
@@ -6197,33 +5954,33 @@
         <v>95.42</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E78">
         <v>28.3</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H78" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I78" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J78">
         <v>63.02</v>
@@ -6265,33 +6022,33 @@
         <v>91.34</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C79" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E79">
         <v>30.9</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H79" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I79" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J79">
         <v>81.86</v>
@@ -6333,33 +6090,33 @@
         <v>96.26</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E80">
         <v>15.6</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H80" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I80" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J80">
         <v>29.9</v>
@@ -6401,33 +6158,33 @@
         <v>64.19</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C81" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E81">
         <v>30.6</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H81" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I81" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J81">
         <v>65.010000000000005</v>
@@ -6469,33 +6226,33 @@
         <v>91.78</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C82" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E82">
         <v>18.100000000000001</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H82" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I82" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J82">
         <v>65.98</v>
@@ -6537,33 +6294,33 @@
         <v>84.93</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C83" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E83">
         <v>37.5</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H83" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I83" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J83">
         <v>75.12</v>
@@ -6605,33 +6362,33 @@
         <v>79.17</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C84" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E84">
         <v>39.799999999999997</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H84" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I84" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J84">
         <v>82.68</v>
@@ -6673,33 +6430,33 @@
         <v>93.11</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C85" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E85">
         <v>39.1</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H85" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I85" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J85">
         <v>66.819999999999993</v>
@@ -6741,33 +6498,33 @@
         <v>79.290000000000006</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E86">
         <v>17</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H86" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I86" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J86">
         <v>52.53</v>
@@ -6809,33 +6566,33 @@
         <v>75.45</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E87">
         <v>23.9</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H87" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I87" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J87">
         <v>77.08</v>
@@ -6877,33 +6634,33 @@
         <v>79.81</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E88">
         <v>31.4</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H88" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I88" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J88">
         <v>64.260000000000005</v>
@@ -6945,33 +6702,33 @@
         <v>81.23</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E89">
         <v>27.5</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H89" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I89" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J89">
         <v>51.84</v>
@@ -7013,33 +6770,33 @@
         <v>71.099999999999994</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E90">
         <v>28.8</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G90" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H90" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I90" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J90">
         <v>66.849999999999994</v>
@@ -7081,33 +6838,33 @@
         <v>65.78</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E91">
         <v>34.9</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H91" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I91" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J91">
         <v>66.08</v>
@@ -7149,33 +6906,33 @@
         <v>88.22</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C92" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E92">
         <v>21.7</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H92" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I92" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J92">
         <v>54.68</v>
@@ -7217,33 +6974,33 @@
         <v>68.37</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C93" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E93">
         <v>24.8</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H93" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I93" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J93">
         <v>63.68</v>
@@ -7285,33 +7042,33 @@
         <v>82.46</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E94">
         <v>19.3</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H94" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I94" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J94">
         <v>72.150000000000006</v>
@@ -7353,33 +7110,33 @@
         <v>88.11</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E95">
         <v>36.299999999999997</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H95" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I95" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J95">
         <v>55.64</v>
@@ -7421,33 +7178,33 @@
         <v>92.21</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E96">
         <v>27.1</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H96" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I96" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J96">
         <v>70.88</v>
@@ -7489,33 +7246,33 @@
         <v>91.29</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E97">
         <v>23</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H97" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I97" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J97">
         <v>56.23</v>
@@ -7557,33 +7314,33 @@
         <v>85.09</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E98">
         <v>21.2</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H98" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I98" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J98">
         <v>49.1</v>
@@ -7625,33 +7382,33 @@
         <v>81.739999999999995</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C99" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E99">
         <v>24.7</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H99" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I99" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J99">
         <v>60.64</v>
@@ -7693,33 +7450,33 @@
         <v>85.48</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C100" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E100">
         <v>17.3</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H100" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I100" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J100">
         <v>52.81</v>
@@ -7761,33 +7518,33 @@
         <v>86.39</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C101" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E101">
         <v>36.799999999999997</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H101" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I101" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J101">
         <v>75.680000000000007</v>
@@ -7829,33 +7586,33 @@
         <v>91.08</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C102" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E102">
         <v>27.8</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H102" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I102" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J102">
         <v>76.39</v>
@@ -7897,33 +7654,33 @@
         <v>84.52</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C103" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E103">
         <v>21.6</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H103" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I103" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J103">
         <v>69.56</v>
@@ -7965,33 +7722,33 @@
         <v>79.489999999999995</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C104" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E104">
         <v>29.4</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H104" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I104" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J104">
         <v>80.37</v>
@@ -8033,33 +7790,33 @@
         <v>94.14</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E105">
         <v>10.3</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H105" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I105" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J105">
         <v>26.47</v>
@@ -8101,33 +7858,33 @@
         <v>66.55</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E106">
         <v>10.8</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H106" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I106" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J106">
         <v>20.47</v>
@@ -8169,33 +7926,33 @@
         <v>70.63</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E107">
         <v>9.5</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H107" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I107" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J107">
         <v>29.6</v>
@@ -8237,33 +7994,33 @@
         <v>46.31</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E108">
         <v>10.3</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H108" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I108" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J108">
         <v>28.83</v>
@@ -8305,33 +8062,33 @@
         <v>77.790000000000006</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C109" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E109">
         <v>12.3</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H109" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I109" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J109">
         <v>28.64</v>
@@ -8373,33 +8130,33 @@
         <v>72.319999999999993</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E110">
         <v>19.100000000000001</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G110" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H110" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I110" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J110">
         <v>49.05</v>
@@ -8441,33 +8198,33 @@
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E111">
         <v>25.4</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I111" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J111">
         <v>51.17</v>
@@ -8509,33 +8266,33 @@
         <v>83.85</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E112">
         <v>26.8</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H112" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I112" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J112">
         <v>53.16</v>
@@ -8577,33 +8334,33 @@
         <v>81.650000000000006</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E113">
         <v>21.5</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H113" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I113" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J113">
         <v>36.409999999999997</v>
@@ -8645,33 +8402,33 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C114" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E114">
         <v>25.8</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H114" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I114" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J114">
         <v>44.66</v>
@@ -8713,33 +8470,33 @@
         <v>71.959999999999994</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C115" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E115">
         <v>30.6</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H115" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I115" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J115">
         <v>52.78</v>
@@ -8781,33 +8538,33 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C116" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E116">
         <v>25.8</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I116" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J116">
         <v>60.34</v>
@@ -8849,33 +8606,33 @@
         <v>72.180000000000007</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B117" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C117" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E117">
         <v>21.2</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H117" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I117" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J117">
         <v>55.28</v>
@@ -8917,33 +8674,33 @@
         <v>83.52</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B118" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C118" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E118">
         <v>17.399999999999999</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H118" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I118" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J118">
         <v>22.35</v>
@@ -8985,33 +8742,33 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B119" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E119">
         <v>15.7</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H119" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I119" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J119">
         <v>27.45</v>
@@ -9053,33 +8810,33 @@
         <v>75.12</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B120" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E120">
         <v>20.7</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H120" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I120" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J120">
         <v>63.77</v>
@@ -9121,33 +8878,33 @@
         <v>83.7</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B121" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E121">
         <v>14.7</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H121" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I121" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J121">
         <v>28.57</v>
@@ -9189,33 +8946,33 @@
         <v>81.28</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B122" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E122">
         <v>20.8</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H122" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I122" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J122">
         <v>54.95</v>
@@ -9257,33 +9014,33 @@
         <v>88.05</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B123" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C123" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E123">
         <v>26.4</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G123" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H123" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I123" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J123">
         <v>83.35</v>
@@ -9325,33 +9082,33 @@
         <v>89.16</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B124" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C124" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E124">
         <v>19.600000000000001</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H124" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I124" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J124">
         <v>76.84</v>
@@ -9393,33 +9150,33 @@
         <v>89.91</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C125" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E125">
         <v>11.4</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I125" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J125">
         <v>23.26</v>
@@ -9461,33 +9218,33 @@
         <v>78.569999999999993</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B126" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C126" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E126">
         <v>28.8</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H126" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I126" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J126">
         <v>50.72</v>
@@ -9529,33 +9286,33 @@
         <v>88.25</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B127" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C127" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E127">
         <v>29.2</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H127" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I127" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J127">
         <v>68.52</v>
@@ -9597,33 +9354,33 @@
         <v>91.95</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B128" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C128" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E128">
         <v>19.600000000000001</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G128" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I128" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J128">
         <v>51.57</v>
@@ -9665,33 +9422,33 @@
         <v>83.73</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B129" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C129" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E129">
         <v>12.9</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H129" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I129" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J129">
         <v>25.27</v>
@@ -9733,33 +9490,33 @@
         <v>78.2</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B130" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C130" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E130">
         <v>14.6</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H130" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I130" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J130">
         <v>27.27</v>
@@ -9801,33 +9558,33 @@
         <v>81.27</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B131" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E131">
         <v>12.9</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H131" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I131" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J131">
         <v>31.08</v>
@@ -9869,33 +9626,33 @@
         <v>80.89</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B132" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E132">
         <v>32.200000000000003</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H132" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I132" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J132">
         <v>35.78</v>
@@ -9937,33 +9694,33 @@
         <v>92.57</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B133" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E133">
         <v>21.4</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H133" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I133" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J133">
         <v>31.69</v>
@@ -10005,33 +9762,33 @@
         <v>90.39</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E134">
         <v>10.1</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H134" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I134" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J134">
         <v>33.47</v>
@@ -10073,33 +9830,33 @@
         <v>56.77</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B135" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E135">
         <v>25.6</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H135" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I135" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J135">
         <v>51.9</v>
@@ -10141,33 +9898,33 @@
         <v>64.510000000000005</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B136" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E136">
         <v>11.1</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H136" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I136" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J136">
         <v>27.36</v>
@@ -10209,33 +9966,33 @@
         <v>67.09</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B137" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E137">
         <v>15.7</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G137" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H137" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I137" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J137">
         <v>40.68</v>
@@ -10277,33 +10034,33 @@
         <v>64.75</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B138" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E138">
         <v>10.8</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G138" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H138" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I138" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J138">
         <v>33.56</v>
@@ -10345,33 +10102,33 @@
         <v>74.34</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B139" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C139" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E139">
         <v>24.1</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H139" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I139" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J139">
         <v>42.87</v>
@@ -10413,33 +10170,33 @@
         <v>56.33</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B140" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C140" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E140">
         <v>14</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H140" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I140" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J140">
         <v>31.03</v>
@@ -10481,33 +10238,33 @@
         <v>58.59</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C141" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E141">
         <v>10.9</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H141" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I141" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J141">
         <v>21.76</v>
@@ -10549,33 +10306,33 @@
         <v>67.72</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B142" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C142" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E142">
         <v>22.4</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H142" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I142" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J142">
         <v>32.01</v>
@@ -10617,33 +10374,33 @@
         <v>52.29</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B143" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C143" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E143">
         <v>28.2</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H143" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I143" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J143">
         <v>50.85</v>
@@ -10685,33 +10442,33 @@
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B144" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E144">
         <v>26.8</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H144" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I144" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J144">
         <v>56</v>
@@ -10753,33 +10510,33 @@
         <v>89.83</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B145" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E145">
         <v>31.3</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H145" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I145" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J145">
         <v>76.400000000000006</v>
@@ -10821,33 +10578,33 @@
         <v>59.13</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B146" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E146">
         <v>32.6</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G146" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H146" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I146" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J146">
         <v>62.39</v>
@@ -10889,33 +10646,33 @@
         <v>97.12</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B147" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C147" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E147">
         <v>31.7</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H147" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I147" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J147">
         <v>71.14</v>
@@ -10957,33 +10714,33 @@
         <v>91.36</v>
       </c>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B148" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E148">
         <v>24.6</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H148" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I148" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J148">
         <v>45.35</v>
@@ -11025,33 +10782,33 @@
         <v>91.53</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B149" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C149" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E149">
         <v>31</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H149" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I149" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J149">
         <v>67.209999999999994</v>
@@ -11093,33 +10850,33 @@
         <v>90.13</v>
       </c>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B150" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C150" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E150">
         <v>35.299999999999997</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H150" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I150" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J150">
         <v>60.47</v>
@@ -11161,33 +10918,33 @@
         <v>91.51</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B151" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E151">
         <v>24.9</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H151" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I151" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J151">
         <v>33.950000000000003</v>
@@ -11229,33 +10986,33 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B152" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E152">
         <v>9.1999999999999993</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G152" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H152" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I152" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J152">
         <v>27.59</v>
@@ -11297,33 +11054,33 @@
         <v>83.77</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B153" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E153">
         <v>24.3</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H153" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I153" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J153">
         <v>31.76</v>
@@ -11365,33 +11122,33 @@
         <v>61.72</v>
       </c>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B154" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C154" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E154">
         <v>11.8</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H154" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I154" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J154">
         <v>47.38</v>
@@ -11433,33 +11190,33 @@
         <v>78.83</v>
       </c>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B155" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E155">
         <v>14.7</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H155" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I155" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J155">
         <v>22.81</v>
@@ -11501,33 +11258,33 @@
         <v>65.66</v>
       </c>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B156" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E156">
         <v>11.4</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H156" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I156" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J156">
         <v>27.43</v>
@@ -11569,33 +11326,33 @@
         <v>79.95</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B157" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C157" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E157">
         <v>29.1</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H157" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I157" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J157">
         <v>63.6</v>
@@ -11637,33 +11394,33 @@
         <v>37.93</v>
       </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B158" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C158" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E158">
         <v>23.2</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H158" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I158" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J158">
         <v>57.42</v>
@@ -11705,33 +11462,33 @@
         <v>77.92</v>
       </c>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B159" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E159">
         <v>19.399999999999999</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H159" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I159" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J159">
         <v>35.729999999999997</v>
@@ -11773,33 +11530,33 @@
         <v>72.13</v>
       </c>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B160" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C160" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E160">
         <v>33.9</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H160" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I160" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J160">
         <v>78.61</v>
@@ -11841,33 +11598,33 @@
         <v>84.58</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B161" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C161" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E161">
         <v>41.3</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G161" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H161" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I161" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J161">
         <v>75</v>
@@ -11909,33 +11666,33 @@
         <v>92.01</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B162" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E162">
         <v>27.1</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H162" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I162" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J162">
         <v>56.15</v>
@@ -11977,33 +11734,33 @@
         <v>95.24</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B163" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E163">
         <v>17.2</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H163" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I163" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J163">
         <v>33.56</v>
@@ -12045,33 +11802,33 @@
         <v>89.29</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B164" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E164">
         <v>19</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H164" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I164" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J164">
         <v>32.54</v>
@@ -12113,33 +11870,33 @@
         <v>90.06</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B165" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C165" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E165">
         <v>28.3</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H165" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I165" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J165">
         <v>45.78</v>
@@ -12181,33 +11938,33 @@
         <v>79.75</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B166" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E166">
         <v>14.2</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H166" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I166" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J166">
         <v>37.9</v>
@@ -12249,33 +12006,33 @@
         <v>89.59</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B167" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C167" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E167">
         <v>17.7</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G167" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H167" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I167" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J167">
         <v>25.77</v>
@@ -12317,33 +12074,33 @@
         <v>80.86</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B168" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C168" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E168">
         <v>10.1</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H168" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I168" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J168">
         <v>19.59</v>
@@ -12367,7 +12124,7 @@
         <v>4.92</v>
       </c>
       <c r="Q168" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="R168">
         <v>4.63</v>
@@ -12385,33 +12142,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B169" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C169" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E169">
         <v>45.3</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H169" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I169" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J169">
         <v>75.25</v>
@@ -12453,33 +12210,33 @@
         <v>89.72</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B170" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C170" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E170">
         <v>52.1</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G170" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H170" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I170" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J170">
         <v>73.58</v>
@@ -12521,33 +12278,33 @@
         <v>83.58</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B171" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E171">
         <v>25.3</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H171" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I171" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J171">
         <v>76.849999999999994</v>
@@ -12589,33 +12346,33 @@
         <v>96.43</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B172" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E172">
         <v>25</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H172" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I172" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J172">
         <v>81.13</v>
@@ -12657,33 +12414,33 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B173" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E173">
         <v>30.1</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H173" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I173" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J173">
         <v>80.17</v>
@@ -12725,33 +12482,33 @@
         <v>96.11</v>
       </c>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B174" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C174" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E174">
         <v>32.6</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H174" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I174" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J174">
         <v>63.62</v>
@@ -12793,33 +12550,33 @@
         <v>82.64</v>
       </c>
     </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B175" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E175">
         <v>39.4</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H175" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I175" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J175">
         <v>64.16</v>
@@ -12861,33 +12618,33 @@
         <v>66.73</v>
       </c>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B176" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C176" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E176">
         <v>32.1</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H176" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I176" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J176">
         <v>84.08</v>
@@ -12929,33 +12686,33 @@
         <v>97.03</v>
       </c>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B177" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C177" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E177">
         <v>36.6</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H177" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I177" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J177">
         <v>53.57</v>
@@ -12997,33 +12754,33 @@
         <v>93.42</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B178" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C178" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E178">
         <v>40.799999999999997</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G178" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H178" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I178" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J178">
         <v>39.86</v>
@@ -13065,33 +12822,33 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B179" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C179" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E179">
         <v>26.5</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H179" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I179" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J179">
         <v>49.19</v>
@@ -13133,33 +12890,33 @@
         <v>79.459999999999994</v>
       </c>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B180" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C180" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E180">
         <v>35.299999999999997</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H180" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I180" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J180">
         <v>78.77</v>
@@ -13201,33 +12958,33 @@
         <v>83.2</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B181" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C181" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E181">
         <v>24.1</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G181" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H181" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I181" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J181">
         <v>78.25</v>
@@ -13269,33 +13026,33 @@
         <v>97.92</v>
       </c>
     </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B182" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C182" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E182">
         <v>27.6</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G182" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H182" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I182" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J182">
         <v>63.88</v>
@@ -13337,33 +13094,33 @@
         <v>88.67</v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B183" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C183" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E183">
         <v>26.4</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G183" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H183" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I183" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J183">
         <v>77.010000000000005</v>
@@ -13405,33 +13162,33 @@
         <v>91.11</v>
       </c>
     </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B184" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E184">
         <v>14</v>
       </c>
       <c r="F184" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H184" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I184" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J184">
         <v>68.31</v>
@@ -13473,33 +13230,33 @@
         <v>91.11</v>
       </c>
     </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B185" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E185">
         <v>21.2</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H185" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I185" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J185">
         <v>70.53</v>
@@ -13541,33 +13298,33 @@
         <v>91.9</v>
       </c>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B186" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E186">
         <v>22.3</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G186" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H186" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I186" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J186">
         <v>57</v>
@@ -13609,33 +13366,33 @@
         <v>87</v>
       </c>
     </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B187" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C187" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E187">
         <v>18.5</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G187" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H187" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I187" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J187">
         <v>56.75</v>
@@ -13677,33 +13434,33 @@
         <v>88.64</v>
       </c>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B188" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E188">
         <v>20.9</v>
       </c>
       <c r="F188" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G188" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H188" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I188" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J188">
         <v>60.27</v>
@@ -13745,33 +13502,33 @@
         <v>90.9</v>
       </c>
     </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B189" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C189" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E189">
         <v>16.100000000000001</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H189" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I189" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J189">
         <v>58.65</v>
@@ -13813,33 +13570,33 @@
         <v>85.85</v>
       </c>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B190" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C190" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E190">
         <v>21.1</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H190" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I190" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J190">
         <v>42.27</v>
@@ -13881,33 +13638,33 @@
         <v>85.25</v>
       </c>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B191" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C191" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E191">
         <v>22.7</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H191" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I191" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J191">
         <v>53.75</v>
@@ -13949,33 +13706,33 @@
         <v>78.459999999999994</v>
       </c>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B192" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C192" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E192">
         <v>28.2</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G192" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H192" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I192" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J192">
         <v>59.74</v>
@@ -14017,33 +13774,33 @@
         <v>86.77</v>
       </c>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B193" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C193" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E193">
         <v>18.3</v>
       </c>
       <c r="F193" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G193" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H193" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I193" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J193">
         <v>20.14</v>
@@ -14085,33 +13842,33 @@
         <v>80.61</v>
       </c>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B194" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C194" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E194">
         <v>14.7</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G194" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H194" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I194" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J194">
         <v>33.159999999999997</v>
@@ -14153,33 +13910,33 @@
         <v>83.51</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B195" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E195">
         <v>19.899999999999999</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H195" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I195" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J195">
         <v>61.59</v>
@@ -14221,33 +13978,33 @@
         <v>86.41</v>
       </c>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B196" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="C196" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E196">
         <v>11.9</v>
       </c>
       <c r="F196" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G196" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H196" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I196" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J196">
         <v>38.799999999999997</v>
@@ -14289,33 +14046,33 @@
         <v>92.01</v>
       </c>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B197" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="C197" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E197">
         <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G197" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H197" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I197" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J197">
         <v>35.99</v>
@@ -14357,33 +14114,33 @@
         <v>92.47</v>
       </c>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="C198" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E198">
         <v>15</v>
       </c>
       <c r="F198" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G198" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H198" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I198" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J198">
         <v>48.09</v>
@@ -14425,33 +14182,33 @@
         <v>81.81</v>
       </c>
     </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B199" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C199" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E199">
         <v>47.1</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G199" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H199" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I199" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J199">
         <v>51.57</v>
@@ -14493,33 +14250,33 @@
         <v>77.599999999999994</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B200" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C200" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E200">
         <v>22.4</v>
       </c>
       <c r="F200" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G200" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H200" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I200" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J200">
         <v>43.03</v>
@@ -14561,33 +14318,33 @@
         <v>87.11</v>
       </c>
     </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B201" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C201" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E201">
         <v>13.2</v>
       </c>
       <c r="F201" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G201" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H201" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I201" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J201">
         <v>58.32</v>
@@ -14629,33 +14386,33 @@
         <v>85.21</v>
       </c>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B202" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C202" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E202">
         <v>31.3</v>
       </c>
       <c r="F202" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G202" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H202" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="I202" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J202">
         <v>50.24</v>
